--- a/화학실험2/4_캐털레이즈의 반응속도/PLOT/DATA.xlsx
+++ b/화학실험2/4_캐털레이즈의 반응속도/PLOT/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeonghyun\GIT\SNU_PJH\화학실험2\4_캐털레이즈의 반응속도\PLOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EEBF68-AFBD-4487-8B98-24E61951C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC92AEF-6E1A-4AFA-95EC-12EA5FFE7B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1910" windowWidth="15030" windowHeight="11260" xr2:uid="{BACDBA1A-60FB-4957-8D18-E5F9241E2924}"/>
+    <workbookView xWindow="7570" yWindow="2630" windowWidth="15030" windowHeight="11260" xr2:uid="{BACDBA1A-60FB-4957-8D18-E5F9241E2924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8557,8 +8557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602B60FB-FC5F-4E76-9E80-C4398A16F138}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H16:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
